--- a/Blacksmith_Hero/Assets/DataTable/Player_Status.xlsx
+++ b/Blacksmith_Hero/Assets/DataTable/Player_Status.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Blacksmith_Hero\Blacksmith_Hero\Assets\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221D57D7-C0AC-4738-96F6-F2E89ACAAEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF70F5B-1280-43ED-B95A-80DAB152FC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16845" yWindow="2310" windowWidth="21600" windowHeight="11385" xr2:uid="{787D2F99-B04A-48AA-800C-560630CA8EAE}"/>
+    <workbookView xWindow="8700" yWindow="7425" windowWidth="21600" windowHeight="11385" xr2:uid="{787D2F99-B04A-48AA-800C-560630CA8EAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Player_Status" sheetId="1" r:id="rId1"/>
@@ -38,15 +38,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>레벨</t>
+    <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>체력</t>
+    <t>Hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격력</t>
+    <t>Atk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -414,7 +414,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
